--- a/result/interactions_download/B_ALL_precog_mut.xlsx
+++ b/result/interactions_download/B_ALL_precog_mut.xlsx
@@ -1896,40 +1896,40 @@
     <t xml:space="preserve">FAM57B</t>
   </si>
   <si>
+    <t xml:space="preserve">RNF149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZBTB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUP43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2AFY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAP4K4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNMT3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPS3</t>
+  </si>
+  <si>
     <t xml:space="preserve">from</t>
   </si>
   <si>
     <t xml:space="preserve">to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZBTB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2AFY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNMT3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NF2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUP43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNF149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAP4K4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPS3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAB4A</t>
   </si>
 </sst>
 </file>
@@ -14621,6 +14621,106 @@
         <v>0</v>
       </c>
     </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>627</v>
+      </c>
+      <c r="B619"/>
+      <c r="C619"/>
+      <c r="D619"/>
+      <c r="E619"/>
+      <c r="F619"/>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>628</v>
+      </c>
+      <c r="B620"/>
+      <c r="C620"/>
+      <c r="D620"/>
+      <c r="E620"/>
+      <c r="F620"/>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>629</v>
+      </c>
+      <c r="B621"/>
+      <c r="C621"/>
+      <c r="D621"/>
+      <c r="E621"/>
+      <c r="F621"/>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>630</v>
+      </c>
+      <c r="B622"/>
+      <c r="C622"/>
+      <c r="D622"/>
+      <c r="E622"/>
+      <c r="F622"/>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>631</v>
+      </c>
+      <c r="B623"/>
+      <c r="C623"/>
+      <c r="D623"/>
+      <c r="E623"/>
+      <c r="F623"/>
+    </row>
+    <row r="624">
+      <c r="A624" t="s">
+        <v>632</v>
+      </c>
+      <c r="B624"/>
+      <c r="C624"/>
+      <c r="D624"/>
+      <c r="E624"/>
+      <c r="F624"/>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>633</v>
+      </c>
+      <c r="B625"/>
+      <c r="C625"/>
+      <c r="D625"/>
+      <c r="E625"/>
+      <c r="F625"/>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>634</v>
+      </c>
+      <c r="B626"/>
+      <c r="C626"/>
+      <c r="D626"/>
+      <c r="E626"/>
+      <c r="F626"/>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>635</v>
+      </c>
+      <c r="B627"/>
+      <c r="C627"/>
+      <c r="D627"/>
+      <c r="E627"/>
+      <c r="F627"/>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>636</v>
+      </c>
+      <c r="B628"/>
+      <c r="C628"/>
+      <c r="D628"/>
+      <c r="E628"/>
+      <c r="F628"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14637,10 +14737,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="B1" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2">
@@ -14712,7 +14812,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11">
@@ -14725,7 +14825,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -14813,7 +14913,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -14880,7 +14980,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="32">
@@ -14928,7 +15028,7 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="38">
@@ -14941,7 +15041,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -14997,7 +15097,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -15037,7 +15137,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
@@ -15109,7 +15209,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
@@ -15141,7 +15241,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
@@ -15237,7 +15337,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
@@ -15269,7 +15369,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
@@ -15288,7 +15388,7 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="83">
@@ -15352,7 +15452,7 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="91">
@@ -15400,7 +15500,7 @@
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="97">
@@ -15424,7 +15524,7 @@
         <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="100">
@@ -15512,7 +15612,7 @@
         <v>18</v>
       </c>
       <c r="B110" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="111">
@@ -15533,7 +15633,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B113" t="s">
         <v>19</v>
@@ -15605,7 +15705,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B122" t="s">
         <v>21</v>
@@ -15752,7 +15852,7 @@
         <v>23</v>
       </c>
       <c r="B140" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="141">
@@ -15784,7 +15884,7 @@
         <v>23</v>
       </c>
       <c r="B144" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="145">
@@ -15848,7 +15948,7 @@
         <v>25</v>
       </c>
       <c r="B152" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="153">
@@ -15885,7 +15985,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B157" t="s">
         <v>26</v>
@@ -15949,7 +16049,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B165" t="s">
         <v>27</v>
@@ -15997,7 +16097,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B171" t="s">
         <v>28</v>
@@ -16005,7 +16105,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B172" t="s">
         <v>28</v>
@@ -16061,7 +16161,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B179" t="s">
         <v>29</v>
@@ -16085,7 +16185,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B182" t="s">
         <v>30</v>
@@ -16109,7 +16209,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B185" t="s">
         <v>32</v>
@@ -16149,7 +16249,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B190" t="s">
         <v>33</v>
@@ -16181,7 +16281,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B194" t="s">
         <v>33</v>
@@ -16264,7 +16364,7 @@
         <v>35</v>
       </c>
       <c r="B204" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="205">
@@ -16309,7 +16409,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B210" t="s">
         <v>36</v>
@@ -16461,7 +16561,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B229" t="s">
         <v>40</v>
@@ -16533,7 +16633,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B238" t="s">
         <v>43</v>
@@ -16541,7 +16641,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B239" t="s">
         <v>43</v>
@@ -16613,7 +16713,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B248" t="s">
         <v>45</v>
@@ -16648,7 +16748,7 @@
         <v>46</v>
       </c>
       <c r="B252" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="253">
@@ -16709,7 +16809,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B260" t="s">
         <v>49</v>
@@ -16728,7 +16828,7 @@
         <v>49</v>
       </c>
       <c r="B262" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="263">
@@ -16760,7 +16860,7 @@
         <v>50</v>
       </c>
       <c r="B266" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="267">
@@ -16784,7 +16884,7 @@
         <v>50</v>
       </c>
       <c r="B269" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="270">
@@ -16821,7 +16921,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B274" t="s">
         <v>51</v>
@@ -16877,7 +16977,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B281" t="s">
         <v>53</v>
@@ -16920,7 +17020,7 @@
         <v>54</v>
       </c>
       <c r="B286" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="287">
@@ -17000,7 +17100,7 @@
         <v>56</v>
       </c>
       <c r="B296" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="297">
@@ -17040,7 +17140,7 @@
         <v>56</v>
       </c>
       <c r="B301" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="302">
@@ -17077,7 +17177,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B306" t="s">
         <v>58</v>
@@ -17093,7 +17193,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B308" t="s">
         <v>58</v>
@@ -17248,7 +17348,7 @@
         <v>62</v>
       </c>
       <c r="B327" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="328">
@@ -17400,7 +17500,7 @@
         <v>67</v>
       </c>
       <c r="B346" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="347">
@@ -17456,7 +17556,7 @@
         <v>69</v>
       </c>
       <c r="B353" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="354">
@@ -17480,7 +17580,7 @@
         <v>69</v>
       </c>
       <c r="B356" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="357">
@@ -17557,7 +17657,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B366" t="s">
         <v>72</v>
@@ -17600,7 +17700,7 @@
         <v>73</v>
       </c>
       <c r="B371" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="372">
@@ -17736,7 +17836,7 @@
         <v>77</v>
       </c>
       <c r="B388" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="389">
@@ -17792,7 +17892,7 @@
         <v>79</v>
       </c>
       <c r="B395" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="396">
@@ -17821,7 +17921,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B399" t="s">
         <v>80</v>
@@ -17869,7 +17969,7 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B405" t="s">
         <v>82</v>
@@ -17896,7 +17996,7 @@
         <v>83</v>
       </c>
       <c r="B408" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="409">
@@ -17909,7 +18009,7 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B410" t="s">
         <v>83</v>
@@ -17984,7 +18084,7 @@
         <v>85</v>
       </c>
       <c r="B419" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="420">
@@ -17997,7 +18097,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B421" t="s">
         <v>85</v>
@@ -18040,7 +18140,7 @@
         <v>87</v>
       </c>
       <c r="B426" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="427">
@@ -18056,7 +18156,7 @@
         <v>87</v>
       </c>
       <c r="B428" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="429">
@@ -18080,7 +18180,7 @@
         <v>87</v>
       </c>
       <c r="B431" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="432">
@@ -18144,12 +18244,12 @@
         <v>89</v>
       </c>
       <c r="B439" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B440" t="s">
         <v>90</v>
@@ -18184,7 +18284,7 @@
         <v>91</v>
       </c>
       <c r="B444" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="445">
@@ -18213,7 +18313,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B448" t="s">
         <v>93</v>
@@ -18221,7 +18321,7 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B449" t="s">
         <v>93</v>
@@ -18256,7 +18356,7 @@
         <v>94</v>
       </c>
       <c r="B453" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="454">
@@ -18296,7 +18396,7 @@
         <v>95</v>
       </c>
       <c r="B458" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="459">
@@ -18309,7 +18409,7 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B460" t="s">
         <v>97</v>
@@ -18333,7 +18433,7 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B463" t="s">
         <v>97</v>
@@ -18389,7 +18489,7 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B470" t="s">
         <v>99</v>
@@ -18437,7 +18537,7 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B476" t="s">
         <v>103</v>
@@ -18448,7 +18548,7 @@
         <v>103</v>
       </c>
       <c r="B477" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="478">
@@ -18469,7 +18569,7 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B480" t="s">
         <v>104</v>
@@ -18533,7 +18633,7 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B488" t="s">
         <v>107</v>
@@ -18557,7 +18657,7 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B491" t="s">
         <v>107</v>
@@ -18576,7 +18676,7 @@
         <v>108</v>
       </c>
       <c r="B493" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="494">
@@ -18653,7 +18753,7 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B503" t="s">
         <v>110</v>
@@ -18669,7 +18769,7 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B505" t="s">
         <v>111</v>
@@ -18760,7 +18860,7 @@
         <v>115</v>
       </c>
       <c r="B516" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="517">
@@ -18792,7 +18892,7 @@
         <v>117</v>
       </c>
       <c r="B520" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="521">
@@ -18829,7 +18929,7 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B525" t="s">
         <v>118</v>
@@ -18845,7 +18945,7 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B527" t="s">
         <v>120</v>
@@ -18864,7 +18964,7 @@
         <v>120</v>
       </c>
       <c r="B529" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="530">
@@ -18917,7 +19017,7 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B536" t="s">
         <v>123</v>
@@ -19045,7 +19145,7 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B552" t="s">
         <v>129</v>
@@ -19069,7 +19169,7 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B555" t="s">
         <v>130</v>
@@ -19109,7 +19209,7 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B560" t="s">
         <v>131</v>
@@ -19181,7 +19281,7 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B569" t="s">
         <v>135</v>
@@ -19325,7 +19425,7 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B587" t="s">
         <v>145</v>
@@ -19373,7 +19473,7 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B593" t="s">
         <v>147</v>
@@ -19392,7 +19492,7 @@
         <v>149</v>
       </c>
       <c r="B595" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="596">
@@ -19424,7 +19524,7 @@
         <v>151</v>
       </c>
       <c r="B599" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="600">
@@ -19485,7 +19585,7 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B607" t="s">
         <v>154</v>
@@ -19544,7 +19644,7 @@
         <v>157</v>
       </c>
       <c r="B614" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="615">
@@ -19664,7 +19764,7 @@
         <v>164</v>
       </c>
       <c r="B629" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="630">
@@ -19733,7 +19833,7 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B638" t="s">
         <v>170</v>
@@ -19765,7 +19865,7 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B642" t="s">
         <v>171</v>
@@ -19773,7 +19873,7 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B643" t="s">
         <v>171</v>
@@ -19824,7 +19924,7 @@
         <v>179</v>
       </c>
       <c r="B649" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="650">
@@ -19856,7 +19956,7 @@
         <v>181</v>
       </c>
       <c r="B653" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="654">
@@ -19885,7 +19985,7 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B657" t="s">
         <v>188</v>
@@ -19912,7 +20012,7 @@
         <v>192</v>
       </c>
       <c r="B660" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="661">
@@ -20008,7 +20108,7 @@
         <v>201</v>
       </c>
       <c r="B672" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="673">
@@ -20045,7 +20145,7 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B677" t="s">
         <v>205</v>
@@ -20088,7 +20188,7 @@
         <v>208</v>
       </c>
       <c r="B682" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="683">
@@ -20128,7 +20228,7 @@
         <v>211</v>
       </c>
       <c r="B687" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="688">
@@ -20189,7 +20289,7 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B695" t="s">
         <v>220</v>
@@ -20208,7 +20308,7 @@
         <v>224</v>
       </c>
       <c r="B697" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="698">
@@ -20216,7 +20316,7 @@
         <v>224</v>
       </c>
       <c r="B698" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="699">
@@ -20280,7 +20380,7 @@
         <v>228</v>
       </c>
       <c r="B706" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="707">
@@ -20296,12 +20396,12 @@
         <v>232</v>
       </c>
       <c r="B708" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B709" t="s">
         <v>234</v>
@@ -20328,7 +20428,7 @@
         <v>240</v>
       </c>
       <c r="B712" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="713">
@@ -20400,7 +20500,7 @@
         <v>251</v>
       </c>
       <c r="B721" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="722">
@@ -20432,7 +20532,7 @@
         <v>256</v>
       </c>
       <c r="B725" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="726">
@@ -20469,7 +20569,7 @@
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B730" t="s">
         <v>262</v>
@@ -20520,7 +20620,7 @@
         <v>268</v>
       </c>
       <c r="B736" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="737">
@@ -20536,7 +20636,7 @@
         <v>273</v>
       </c>
       <c r="B738" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="739">
@@ -20608,7 +20708,7 @@
         <v>286</v>
       </c>
       <c r="B747" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="748">
@@ -20640,7 +20740,7 @@
         <v>290</v>
       </c>
       <c r="B751" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="752">
@@ -20661,7 +20761,7 @@
     </row>
     <row r="754">
       <c r="A754" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B754" t="s">
         <v>297</v>
@@ -20733,7 +20833,7 @@
     </row>
     <row r="763">
       <c r="A763" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B763" t="s">
         <v>308</v>
@@ -20741,7 +20841,7 @@
     </row>
     <row r="764">
       <c r="A764" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B764" t="s">
         <v>309</v>
@@ -20768,7 +20868,7 @@
         <v>316</v>
       </c>
       <c r="B767" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="768">
@@ -20885,7 +20985,7 @@
     </row>
     <row r="782">
       <c r="A782" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B782" t="s">
         <v>349</v>
@@ -20933,7 +21033,7 @@
     </row>
     <row r="788">
       <c r="A788" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B788" t="s">
         <v>360</v>
@@ -21016,12 +21116,12 @@
         <v>413</v>
       </c>
       <c r="B798" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B799" t="s">
         <v>420</v>
@@ -21029,7 +21129,7 @@
     </row>
     <row r="800">
       <c r="A800" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B800" t="s">
         <v>422</v>
@@ -21064,7 +21164,7 @@
         <v>454</v>
       </c>
       <c r="B804" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="805">
@@ -21141,7 +21241,7 @@
     </row>
     <row r="814">
       <c r="A814" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B814" t="s">
         <v>581</v>

--- a/result/interactions_download/B_ALL_precog_mut.xlsx
+++ b/result/interactions_download/B_ALL_precog_mut.xlsx
@@ -4526,7 +4526,7 @@
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C114" t="n">
         <v>-2.208</v>
